--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vegfc-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Nrp2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H2">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I2">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J2">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N2">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O2">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P2">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q2">
-        <v>388.0406277640244</v>
+        <v>405.3813582091935</v>
       </c>
       <c r="R2">
-        <v>388.0406277640244</v>
+        <v>1621.525432836774</v>
       </c>
       <c r="S2">
-        <v>0.1974067670776371</v>
+        <v>0.1900983449112552</v>
       </c>
       <c r="T2">
-        <v>0.1974067670776371</v>
+        <v>0.1228041641220984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H3">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I3">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J3">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N3">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O3">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P3">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q3">
-        <v>88.58636663018552</v>
+        <v>99.495291948269</v>
       </c>
       <c r="R3">
-        <v>88.58636663018552</v>
+        <v>596.9717516896139</v>
       </c>
       <c r="S3">
-        <v>0.04506628170453775</v>
+        <v>0.04665703033159144</v>
       </c>
       <c r="T3">
-        <v>0.04506628170453775</v>
+        <v>0.04521089554697567</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H4">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I4">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J4">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N4">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O4">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P4">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q4">
-        <v>138.6441751652534</v>
+        <v>155.1893195189465</v>
       </c>
       <c r="R4">
-        <v>138.6441751652534</v>
+        <v>931.1359171136791</v>
       </c>
       <c r="S4">
-        <v>0.07053204338737985</v>
+        <v>0.07277402423924939</v>
       </c>
       <c r="T4">
-        <v>0.07053204338737985</v>
+        <v>0.07051839315598281</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H5">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I5">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J5">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N5">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O5">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P5">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q5">
-        <v>80.05358277168047</v>
+        <v>90.457540535269</v>
       </c>
       <c r="R5">
-        <v>80.05358277168047</v>
+        <v>542.745243211614</v>
       </c>
       <c r="S5">
-        <v>0.04072542367277499</v>
+        <v>0.04241889369669451</v>
       </c>
       <c r="T5">
-        <v>0.04072542367277499</v>
+        <v>0.04110411996883955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H6">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I6">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J6">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N6">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O6">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P6">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q6">
-        <v>199.1055479166789</v>
+        <v>210.997722843533</v>
       </c>
       <c r="R6">
-        <v>199.1055479166789</v>
+        <v>1265.986337061198</v>
       </c>
       <c r="S6">
-        <v>0.1012903796902297</v>
+        <v>0.09894465317741817</v>
       </c>
       <c r="T6">
-        <v>0.1012903796902297</v>
+        <v>0.09587786337758122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.04412645736603</v>
+        <v>6.314218500000001</v>
       </c>
       <c r="H7">
-        <v>6.04412645736603</v>
+        <v>12.628437</v>
       </c>
       <c r="I7">
-        <v>0.4690396381411929</v>
+        <v>0.4670554707680782</v>
       </c>
       <c r="J7">
-        <v>0.4690396381411929</v>
+        <v>0.3859564807867226</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N7">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O7">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P7">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q7">
-        <v>27.55651066499157</v>
+        <v>34.46629743794775</v>
       </c>
       <c r="R7">
-        <v>27.55651066499157</v>
+        <v>137.865189751791</v>
       </c>
       <c r="S7">
-        <v>0.01401874260863348</v>
+        <v>0.0161625244118695</v>
       </c>
       <c r="T7">
-        <v>0.01401874260863348</v>
+        <v>0.01044104461524497</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H8">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I8">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J8">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N8">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O8">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P8">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q8">
-        <v>185.6740313172472</v>
+        <v>198.771940991921</v>
       </c>
       <c r="R8">
-        <v>185.6740313172472</v>
+        <v>1192.631645951526</v>
       </c>
       <c r="S8">
-        <v>0.0944574037615962</v>
+        <v>0.09321153090089214</v>
       </c>
       <c r="T8">
-        <v>0.0944574037615962</v>
+        <v>0.09032243924192733</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H9">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I9">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J9">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N9">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O9">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P9">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q9">
-        <v>42.38779817142419</v>
+        <v>48.78584547518732</v>
       </c>
       <c r="R9">
-        <v>42.38779817142419</v>
+        <v>439.0726092766859</v>
       </c>
       <c r="S9">
-        <v>0.02156381987313133</v>
+        <v>0.02287749126131138</v>
       </c>
       <c r="T9">
-        <v>0.02156381987313133</v>
+        <v>0.03325260503426207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H10">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I10">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J10">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N10">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O10">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P10">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q10">
-        <v>66.34001978071684</v>
+        <v>76.09447656465233</v>
       </c>
       <c r="R10">
-        <v>66.34001978071684</v>
+        <v>684.8502890818709</v>
       </c>
       <c r="S10">
-        <v>0.03374896311306283</v>
+        <v>0.03568352061311104</v>
       </c>
       <c r="T10">
-        <v>0.03374896311306283</v>
+        <v>0.05186626468901182</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H11">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I11">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J11">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N11">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O11">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P11">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q11">
-        <v>38.30493605851466</v>
+        <v>44.35433585052066</v>
       </c>
       <c r="R11">
-        <v>38.30493605851466</v>
+        <v>399.1890226546859</v>
       </c>
       <c r="S11">
-        <v>0.01948675744083525</v>
+        <v>0.02079939213798487</v>
       </c>
       <c r="T11">
-        <v>0.01948675744083525</v>
+        <v>0.03023207238141466</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H12">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I12">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J12">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N12">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O12">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P12">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q12">
-        <v>95.27025546871485</v>
+        <v>103.4591898842113</v>
       </c>
       <c r="R12">
-        <v>95.27025546871485</v>
+        <v>931.1327089579019</v>
       </c>
       <c r="S12">
-        <v>0.04846655681161432</v>
+        <v>0.04851584900137083</v>
       </c>
       <c r="T12">
-        <v>0.04846655681161432</v>
+        <v>0.07051815019038964</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.89206141015945</v>
+        <v>3.096071</v>
       </c>
       <c r="H13">
-        <v>2.89206141015945</v>
+        <v>9.288212999999999</v>
       </c>
       <c r="I13">
-        <v>0.2244313461790874</v>
+        <v>0.2290128063253425</v>
       </c>
       <c r="J13">
-        <v>0.2244313461790874</v>
+        <v>0.2838709178560645</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N13">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O13">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P13">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q13">
-        <v>13.1855482599548</v>
+        <v>16.8999701190265</v>
       </c>
       <c r="R13">
-        <v>13.1855482599548</v>
+        <v>101.399820714159</v>
       </c>
       <c r="S13">
-        <v>0.006707845178847428</v>
+        <v>0.007925022410672233</v>
       </c>
       <c r="T13">
-        <v>0.006707845178847428</v>
+        <v>0.007679386319058987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H14">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I14">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J14">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N14">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O14">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P14">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q14">
-        <v>163.4805316809905</v>
+        <v>1.409840267509666</v>
       </c>
       <c r="R14">
-        <v>163.4805316809905</v>
+        <v>8.459041605057998</v>
       </c>
       <c r="S14">
-        <v>0.08316696997743993</v>
+        <v>0.0006611263592060038</v>
       </c>
       <c r="T14">
-        <v>0.08316696997743993</v>
+        <v>0.0006406347458675776</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H15">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I15">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J15">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N15">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O15">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P15">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q15">
-        <v>37.32121144076898</v>
+        <v>0.346025948593111</v>
       </c>
       <c r="R15">
-        <v>37.32121144076898</v>
+        <v>3.114233537337999</v>
       </c>
       <c r="S15">
-        <v>0.0189863101098358</v>
+        <v>0.0001622643932480804</v>
       </c>
       <c r="T15">
-        <v>0.0189863101098358</v>
+        <v>0.0002358525118935312</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H16">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I16">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J16">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N16">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O16">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P16">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q16">
-        <v>58.41043913646958</v>
+        <v>0.5397193218547777</v>
       </c>
       <c r="R16">
-        <v>58.41043913646958</v>
+        <v>4.857473896693</v>
       </c>
       <c r="S16">
-        <v>0.02971497087806887</v>
+        <v>0.0002530943954957905</v>
       </c>
       <c r="T16">
-        <v>0.02971497087806887</v>
+        <v>0.0003678746010074714</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H17">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I17">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J17">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N17">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O17">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P17">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q17">
-        <v>33.72637125626213</v>
+        <v>0.3145943457042222</v>
       </c>
       <c r="R17">
-        <v>33.72637125626213</v>
+        <v>2.831349111338</v>
       </c>
       <c r="S17">
-        <v>0.01715751763757997</v>
+        <v>0.0001475249495956117</v>
       </c>
       <c r="T17">
-        <v>0.01715751763757997</v>
+        <v>0.0002144286200602006</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H18">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I18">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J18">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N18">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O18">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P18">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q18">
-        <v>83.88266203364626</v>
+        <v>0.7338104725184443</v>
       </c>
       <c r="R18">
-        <v>83.88266203364626</v>
+        <v>6.604294252665999</v>
       </c>
       <c r="S18">
-        <v>0.04267337990185407</v>
+        <v>0.0003441109303114937</v>
       </c>
       <c r="T18">
-        <v>0.04267337990185407</v>
+        <v>0.0005001678166072073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.54637513729161</v>
+        <v>0.02195966666666667</v>
       </c>
       <c r="H19">
-        <v>2.54637513729161</v>
+        <v>0.06587899999999999</v>
       </c>
       <c r="I19">
-        <v>0.197605209188074</v>
+        <v>0.001624331253806005</v>
       </c>
       <c r="J19">
-        <v>0.197605209188074</v>
+        <v>0.002013426285275722</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.55922139607258</v>
+        <v>5.4585215</v>
       </c>
       <c r="N19">
-        <v>4.55922139607258</v>
+        <v>10.917043</v>
       </c>
       <c r="O19">
-        <v>0.02988818314842184</v>
+        <v>0.03460514954527787</v>
       </c>
       <c r="P19">
-        <v>0.02988818314842184</v>
+        <v>0.02705238837799083</v>
       </c>
       <c r="Q19">
-        <v>11.60948800836716</v>
+        <v>0.1198673126328333</v>
       </c>
       <c r="R19">
-        <v>11.60948800836716</v>
+        <v>0.7192038757969998</v>
       </c>
       <c r="S19">
-        <v>0.005906060683295367</v>
+        <v>5.621022594902551E-05</v>
       </c>
       <c r="T19">
-        <v>0.005906060683295367</v>
+        <v>5.446798983973419E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.40361113884152</v>
+        <v>2.563407</v>
       </c>
       <c r="H20">
-        <v>1.40361113884152</v>
+        <v>7.690221</v>
       </c>
       <c r="I20">
-        <v>0.1089238064916458</v>
+        <v>0.1896122636800084</v>
       </c>
       <c r="J20">
-        <v>0.1089238064916458</v>
+        <v>0.2350323031767233</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>64.2012754864048</v>
+        <v>64.20135099999999</v>
       </c>
       <c r="N20">
-        <v>64.2012754864048</v>
+        <v>128.402702</v>
       </c>
       <c r="O20">
-        <v>0.4208743803827782</v>
+        <v>0.4070144914449589</v>
       </c>
       <c r="P20">
-        <v>0.4208743803827782</v>
+        <v>0.3181813759721767</v>
       </c>
       <c r="Q20">
-        <v>90.1136254005508</v>
+        <v>164.574192562857</v>
       </c>
       <c r="R20">
-        <v>90.1136254005508</v>
+        <v>987.4451553771419</v>
       </c>
       <c r="S20">
-        <v>0.04584323956610507</v>
+        <v>0.07717493907344607</v>
       </c>
       <c r="T20">
-        <v>0.04584323956610507</v>
+        <v>0.0747829016226796</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.40361113884152</v>
+        <v>2.563407</v>
       </c>
       <c r="H21">
-        <v>1.40361113884152</v>
+        <v>7.690221</v>
       </c>
       <c r="I21">
-        <v>0.1089238064916458</v>
+        <v>0.1896122636800084</v>
       </c>
       <c r="J21">
-        <v>0.1089238064916458</v>
+        <v>0.2350323031767233</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.6566037714556</v>
+        <v>15.75734066666666</v>
       </c>
       <c r="N21">
-        <v>14.6566037714556</v>
+        <v>47.27202199999999</v>
       </c>
       <c r="O21">
-        <v>0.09608203239098452</v>
+        <v>0.09989612209201491</v>
       </c>
       <c r="P21">
-        <v>0.09608203239098452</v>
+        <v>0.11713987922892</v>
       </c>
       <c r="Q21">
-        <v>20.57217231120171</v>
+        <v>40.392477366318</v>
       </c>
       <c r="R21">
-        <v>20.57217231120171</v>
+        <v>363.5322962968619</v>
       </c>
       <c r="S21">
-        <v>0.01046562070347964</v>
+        <v>0.01894152984272144</v>
       </c>
       <c r="T21">
-        <v>0.01046562070347964</v>
+        <v>0.02753165560901628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.40361113884152</v>
+        <v>2.563407</v>
       </c>
       <c r="H22">
-        <v>1.40361113884152</v>
+        <v>7.690221</v>
       </c>
       <c r="I22">
-        <v>0.1089238064916458</v>
+        <v>0.1896122636800084</v>
       </c>
       <c r="J22">
-        <v>0.1089238064916458</v>
+        <v>0.2350323031767233</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.938662210862</v>
+        <v>24.57775566666666</v>
       </c>
       <c r="N22">
-        <v>22.938662210862</v>
+        <v>73.733267</v>
       </c>
       <c r="O22">
-        <v>0.1503754430369655</v>
+        <v>0.1558145205313015</v>
       </c>
       <c r="P22">
-        <v>0.1503754430369655</v>
+        <v>0.1827107372630203</v>
       </c>
       <c r="Q22">
-        <v>32.19696178928895</v>
+        <v>63.002790920223</v>
       </c>
       <c r="R22">
-        <v>32.19696178928895</v>
+        <v>567.025118282007</v>
       </c>
       <c r="S22">
-        <v>0.01637946565845394</v>
+        <v>0.02954434395215521</v>
       </c>
       <c r="T22">
-        <v>0.01637946565845394</v>
+        <v>0.04294292539404481</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.40361113884152</v>
+        <v>2.563407</v>
       </c>
       <c r="H23">
-        <v>1.40361113884152</v>
+        <v>7.690221</v>
       </c>
       <c r="I23">
-        <v>0.1089238064916458</v>
+        <v>0.1896122636800084</v>
       </c>
       <c r="J23">
-        <v>0.1089238064916458</v>
+        <v>0.2350323031767233</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.2448557018721</v>
+        <v>14.32600733333333</v>
       </c>
       <c r="N23">
-        <v>13.2448557018721</v>
+        <v>42.978022</v>
       </c>
       <c r="O23">
-        <v>0.08682725373524956</v>
+        <v>0.09082196088386706</v>
       </c>
       <c r="P23">
-        <v>0.08682725373524956</v>
+        <v>0.1064993646046676</v>
       </c>
       <c r="Q23">
-        <v>18.5906269954963</v>
+        <v>36.723387480318</v>
       </c>
       <c r="R23">
-        <v>18.5906269954963</v>
+        <v>330.510487322862</v>
       </c>
       <c r="S23">
-        <v>0.009457554984059353</v>
+        <v>0.01722095759504721</v>
       </c>
       <c r="T23">
-        <v>0.009457554984059353</v>
+        <v>0.02503079094989262</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.40361113884152</v>
+        <v>2.563407</v>
       </c>
       <c r="H24">
-        <v>1.40361113884152</v>
+        <v>7.690221</v>
       </c>
       <c r="I24">
-        <v>0.1089238064916458</v>
+        <v>0.1896122636800084</v>
       </c>
       <c r="J24">
-        <v>0.1089238064916458</v>
+        <v>0.2350323031767233</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>32.94198910647</v>
+        <v>33.41628466666666</v>
       </c>
       <c r="N24">
-        <v>32.94198910647</v>
+        <v>100.248854</v>
       </c>
       <c r="O24">
-        <v>0.2159527073056003</v>
+        <v>0.2118477555025799</v>
       </c>
       <c r="P24">
-        <v>0.2159527073056003</v>
+        <v>0.2484162545532246</v>
       </c>
       <c r="Q24">
-        <v>46.2377428454373</v>
+        <v>85.659538028526</v>
       </c>
       <c r="R24">
-        <v>46.2377428454373</v>
+        <v>770.935842256734</v>
       </c>
       <c r="S24">
-        <v>0.02352239090190224</v>
+        <v>0.04016893247637313</v>
       </c>
       <c r="T24">
-        <v>0.02352239090190224</v>
+        <v>0.05838584445417955</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.563407</v>
+      </c>
+      <c r="H25">
+        <v>7.690221</v>
+      </c>
+      <c r="I25">
+        <v>0.1896122636800084</v>
+      </c>
+      <c r="J25">
+        <v>0.2350323031767233</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.4585215</v>
+      </c>
+      <c r="N25">
+        <v>10.917043</v>
+      </c>
+      <c r="O25">
+        <v>0.03460514954527787</v>
+      </c>
+      <c r="P25">
+        <v>0.02705238837799083</v>
+      </c>
+      <c r="Q25">
+        <v>13.9924122227505</v>
+      </c>
+      <c r="R25">
+        <v>83.954473336503</v>
+      </c>
+      <c r="S25">
+        <v>0.006561560740265349</v>
+      </c>
+      <c r="T25">
+        <v>0.006358185146910405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.5235485</v>
+      </c>
+      <c r="H26">
+        <v>3.047097</v>
+      </c>
+      <c r="I26">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J26">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>64.20135099999999</v>
+      </c>
+      <c r="N26">
+        <v>128.402702</v>
+      </c>
+      <c r="O26">
+        <v>0.4070144914449589</v>
+      </c>
+      <c r="P26">
+        <v>0.3181813759721767</v>
+      </c>
+      <c r="Q26">
+        <v>97.81387201402347</v>
+      </c>
+      <c r="R26">
+        <v>391.2554880560939</v>
+      </c>
+      <c r="S26">
+        <v>0.04586855020015945</v>
+      </c>
+      <c r="T26">
+        <v>0.0296312362396038</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.5235485</v>
+      </c>
+      <c r="H27">
+        <v>3.047097</v>
+      </c>
+      <c r="I27">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J27">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>15.75734066666666</v>
+      </c>
+      <c r="N27">
+        <v>47.27202199999999</v>
+      </c>
+      <c r="O27">
+        <v>0.09989612209201491</v>
+      </c>
+      <c r="P27">
+        <v>0.11713987922892</v>
+      </c>
+      <c r="Q27">
+        <v>24.007072736689</v>
+      </c>
+      <c r="R27">
+        <v>144.042436420134</v>
+      </c>
+      <c r="S27">
+        <v>0.01125780626314256</v>
+      </c>
+      <c r="T27">
+        <v>0.01090887052677247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.5235485</v>
+      </c>
+      <c r="H28">
+        <v>3.047097</v>
+      </c>
+      <c r="I28">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J28">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>24.57775566666666</v>
+      </c>
+      <c r="N28">
+        <v>73.733267</v>
+      </c>
+      <c r="O28">
+        <v>0.1558145205313015</v>
+      </c>
+      <c r="P28">
+        <v>0.1827107372630203</v>
+      </c>
+      <c r="Q28">
+        <v>37.4454027793165</v>
+      </c>
+      <c r="R28">
+        <v>224.672416675899</v>
+      </c>
+      <c r="S28">
+        <v>0.01755953733129001</v>
+      </c>
+      <c r="T28">
+        <v>0.01701527942297338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.5235485</v>
+      </c>
+      <c r="H29">
+        <v>3.047097</v>
+      </c>
+      <c r="I29">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J29">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>14.32600733333333</v>
+      </c>
+      <c r="N29">
+        <v>42.978022</v>
+      </c>
+      <c r="O29">
+        <v>0.09082196088386706</v>
+      </c>
+      <c r="P29">
+        <v>0.1064993646046676</v>
+      </c>
+      <c r="Q29">
+        <v>21.826366983689</v>
+      </c>
+      <c r="R29">
+        <v>130.958201902134</v>
+      </c>
+      <c r="S29">
+        <v>0.01023519250454484</v>
+      </c>
+      <c r="T29">
+        <v>0.00991795268446056</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.40361113884152</v>
-      </c>
-      <c r="H25">
-        <v>1.40361113884152</v>
-      </c>
-      <c r="I25">
-        <v>0.1089238064916458</v>
-      </c>
-      <c r="J25">
-        <v>0.1089238064916458</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.55922139607258</v>
-      </c>
-      <c r="N25">
-        <v>4.55922139607258</v>
-      </c>
-      <c r="O25">
-        <v>0.02988818314842184</v>
-      </c>
-      <c r="P25">
-        <v>0.02988818314842184</v>
-      </c>
-      <c r="Q25">
-        <v>6.399373935972059</v>
-      </c>
-      <c r="R25">
-        <v>6.399373935972059</v>
-      </c>
-      <c r="S25">
-        <v>0.00325553467764557</v>
-      </c>
-      <c r="T25">
-        <v>0.00325553467764557</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.5235485</v>
+      </c>
+      <c r="H30">
+        <v>3.047097</v>
+      </c>
+      <c r="I30">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J30">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>33.41628466666666</v>
+      </c>
+      <c r="N30">
+        <v>100.248854</v>
+      </c>
+      <c r="O30">
+        <v>0.2118477555025799</v>
+      </c>
+      <c r="P30">
+        <v>0.2484162545532246</v>
+      </c>
+      <c r="Q30">
+        <v>50.91133037947299</v>
+      </c>
+      <c r="R30">
+        <v>305.467982276838</v>
+      </c>
+      <c r="S30">
+        <v>0.02387420991710624</v>
+      </c>
+      <c r="T30">
+        <v>0.02313422871446701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.5235485</v>
+      </c>
+      <c r="H31">
+        <v>3.047097</v>
+      </c>
+      <c r="I31">
+        <v>0.1126951279727648</v>
+      </c>
+      <c r="J31">
+        <v>0.09312687189521393</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.4585215</v>
+      </c>
+      <c r="N31">
+        <v>10.917043</v>
+      </c>
+      <c r="O31">
+        <v>0.03460514954527787</v>
+      </c>
+      <c r="P31">
+        <v>0.02705238837799083</v>
+      </c>
+      <c r="Q31">
+        <v>8.31632224354275</v>
+      </c>
+      <c r="R31">
+        <v>33.265288974171</v>
+      </c>
+      <c r="S31">
+        <v>0.003899831756521754</v>
+      </c>
+      <c r="T31">
+        <v>0.002519304306936726</v>
       </c>
     </row>
   </sheetData>
